--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1372468.110784778</v>
+        <v>1389113.230088467</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538663.5442169873</v>
+        <v>500191.9180179283</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205212</v>
+        <v>11813519.27205211</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.778646031951277</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>208.6957123392362</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.954515658907</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>213.4869525557533</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>180.1159031720507</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,13 +913,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>186.0850531309659</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>150.5581583489362</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>68.59860547407823</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>183.4693513325733</v>
-      </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1257,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.0914755860228</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>62.45869753647823</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>324.0861721753968</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>86.65804289016209</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>113.4883178883721</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>76.89992984534477</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1570,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356401</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1607,16 +1609,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1652,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>17.95817021688007</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>70.6261198365675</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1683,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>149.7819690015607</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>62.73610779574958</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1740,10 +1742,10 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1895,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>70.62611983656772</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>70.6261198365675</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1923,19 +1925,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>122.0501874122705</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>120.369604185272</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2008,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>99.78974769572874</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>22.56969713338525</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>156.4877100902363</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2163,13 +2165,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>191.9638931116298</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>213.2925955873844</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2293,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>201.3876489924063</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>104.1189927826353</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2409,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>55.78278391271245</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>8.600015185379082</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>38.9764047481749</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>122.1359927426592</v>
+        <v>162.6046729685536</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2631,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>128.5517364212869</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2685,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>15.24660776898412</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>66.17054555350499</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>141.6396260835082</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,25 +2873,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>127.7502517223829</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>6.719253572850684</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
@@ -2928,16 +2930,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>99.78974769572874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>31.30417273457463</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>261.422596726332</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>141.2209508291585</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>236.7169210647686</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3202,13 +3204,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>39.295267780926</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>75.3662283692442</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3278,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>60.77631835110542</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.42522453130207</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>207.0273116445446</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>98.68313739545462</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>211.7304284926915</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>96.85493861652184</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>165.7830271931353</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>154.7035361832092</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3749,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205.6281784227347</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>141.8128813945266</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3834,10 +3836,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.82294225920696</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3882,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3919,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>21.3881647021492</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>225.2606733395414</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>42.26482621737423</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4059,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4068,7 +4070,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>132.4670034684875</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>41.46660291399466</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.3558523848238</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C2" t="n">
-        <v>266.3558523848238</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3558523848238</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G2" t="n">
         <v>243.9530410142718</v>
@@ -4358,22 +4360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W2" t="n">
-        <v>509.8046290289238</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X2" t="n">
-        <v>509.8046290289238</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.8046290289238</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178.5185981156682</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="C3" t="n">
-        <v>178.5185981156682</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D3" t="n">
-        <v>178.5185981156682</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4437,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>735.8335372470253</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="W3" t="n">
-        <v>492.3847606029253</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="X3" t="n">
-        <v>284.5332603973924</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="Y3" t="n">
-        <v>284.5332603973924</v>
+        <v>318.0035561858384</v>
       </c>
     </row>
     <row r="4">
@@ -4504,28 +4506,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>223.6192102101089</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4597,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>710.516763498309</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>710.516763498309</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.067986854209</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238.2612061051368</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C6" t="n">
-        <v>238.2612061051368</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="D6" t="n">
-        <v>89.32679644388554</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E6" t="n">
-        <v>89.32679644388554</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>89.32679644388554</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>89.32679644388554</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4653,43 +4655,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>446.0215048700907</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X6" t="n">
-        <v>446.0215048700907</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y6" t="n">
-        <v>238.2612061051368</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="7">
@@ -4747,19 +4749,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="C8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="D8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="E8" t="n">
         <v>710.516763498309</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>467.067986854209</v>
       </c>
-      <c r="D8" t="n">
-        <v>467.067986854209</v>
-      </c>
-      <c r="E8" t="n">
-        <v>281.7454097505996</v>
-      </c>
-      <c r="F8" t="n">
-        <v>274.7999090013961</v>
-      </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4844,10 +4846,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259.2693145670932</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C9" t="n">
-        <v>259.2693145670932</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4884,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>870.0253619894011</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>696.6080174400699</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>494.4214227988359</v>
+        <v>626.3806880430006</v>
       </c>
       <c r="U9" t="n">
-        <v>494.4214227988359</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="V9" t="n">
-        <v>259.2693145670932</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="W9" t="n">
-        <v>259.2693145670932</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="X9" t="n">
-        <v>259.2693145670932</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="Y9" t="n">
-        <v>259.2693145670932</v>
+        <v>398.1570697793896</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4996,16 +4998,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.45932575975218</v>
+        <v>918.4376423829585</v>
       </c>
       <c r="C11" t="n">
-        <v>32.45932575975218</v>
+        <v>549.4751254425469</v>
       </c>
       <c r="D11" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5075,16 +5077,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V11" t="n">
-        <v>1535.43291133088</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W11" t="n">
-        <v>1182.664256060766</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="X11" t="n">
-        <v>809.1984977996857</v>
+        <v>918.4376423829585</v>
       </c>
       <c r="Y11" t="n">
-        <v>419.059165823874</v>
+        <v>918.4376423829585</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>321.5470195745884</v>
+        <v>584.71188835258</v>
       </c>
       <c r="C12" t="n">
-        <v>147.0939902934614</v>
+        <v>584.71188835258</v>
       </c>
       <c r="D12" t="n">
-        <v>32.45932575975218</v>
+        <v>584.71188835258</v>
       </c>
       <c r="E12" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F12" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G12" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L12" t="n">
-        <v>466.9286114492849</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M12" t="n">
-        <v>772.7886475620822</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N12" t="n">
-        <v>1117.3093031997</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O12" t="n">
-        <v>1440.322810374258</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
@@ -5145,25 +5147,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U12" t="n">
-        <v>1394.763620525087</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V12" t="n">
-        <v>1159.611512293345</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="W12" t="n">
-        <v>905.3741555651432</v>
+        <v>1000.323687323067</v>
       </c>
       <c r="X12" t="n">
-        <v>697.5226553596103</v>
+        <v>792.4721871175338</v>
       </c>
       <c r="Y12" t="n">
-        <v>489.7623565946564</v>
+        <v>584.71188835258</v>
       </c>
     </row>
     <row r="13">
@@ -5206,28 +5208,28 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M13" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N13" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O13" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P13" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642184</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U13" t="n">
         <v>32.45932575975218</v>
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>401.4218427001639</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C14" t="n">
-        <v>32.45932575975218</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975218</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F14" t="n">
         <v>32.45932575975218</v>
@@ -5276,16 +5278,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011315</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528321</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941452</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5300,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="S14" t="n">
-        <v>1622.966287987609</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="T14" t="n">
-        <v>1551.626773001177</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="U14" t="n">
-        <v>1551.626773001177</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="V14" t="n">
-        <v>1551.626773001177</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="W14" t="n">
-        <v>1551.626773001177</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="X14" t="n">
-        <v>1178.161014740097</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="Y14" t="n">
-        <v>788.0216827642857</v>
+        <v>1214.687390136161</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>345.324728281709</v>
+        <v>878.5768620600998</v>
       </c>
       <c r="C15" t="n">
-        <v>170.8716990005819</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D15" t="n">
-        <v>170.8716990005819</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E15" t="n">
-        <v>170.8716990005819</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F15" t="n">
-        <v>170.8716990005819</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9399761455072</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313474</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082806</v>
+        <v>1307.050658039703</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T15" t="n">
-        <v>1422.063279093102</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U15" t="n">
-        <v>1193.860611630581</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="V15" t="n">
-        <v>958.708503398838</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="W15" t="n">
-        <v>704.4711466706365</v>
+        <v>1086.428362265633</v>
       </c>
       <c r="X15" t="n">
-        <v>496.6196464651036</v>
+        <v>878.5768620600998</v>
       </c>
       <c r="Y15" t="n">
-        <v>496.6196464651036</v>
+        <v>878.5768620600998</v>
       </c>
     </row>
     <row r="16">
@@ -5492,25 +5494,25 @@
         <v>401.4218427001639</v>
       </c>
       <c r="C17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
         <v>70.13987180521505</v>
@@ -5522,7 +5524,7 @@
         <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5543,13 +5545,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1551.626773001177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1551.626773001177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V17" t="n">
-        <v>1551.626773001177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W17" t="n">
         <v>1551.626773001177</v>
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>784.901795268853</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C18" t="n">
-        <v>610.448765987726</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D18" t="n">
-        <v>461.5143563264747</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E18" t="n">
-        <v>302.2769013210192</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F18" t="n">
-        <v>155.7423433479042</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L18" t="n">
-        <v>534.6972605625989</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M18" t="n">
-        <v>546.7891136313477</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082811</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O18" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286847</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
@@ -5619,25 +5621,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.966287987609</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U18" t="n">
-        <v>1622.966287987609</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V18" t="n">
-        <v>1622.966287987609</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W18" t="n">
-        <v>1368.728931259408</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X18" t="n">
-        <v>1160.877431053875</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y18" t="n">
-        <v>953.1171322889211</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>133.2570507049327</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C19" t="n">
-        <v>133.2570507049327</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D19" t="n">
-        <v>133.2570507049327</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5704,19 +5706,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V19" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W19" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X19" t="n">
-        <v>133.2570507049327</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.2570507049327</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.45932575975218</v>
+        <v>800.5649960805455</v>
       </c>
       <c r="C20" t="n">
-        <v>32.45932575975218</v>
+        <v>800.5649960805455</v>
       </c>
       <c r="D20" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5774,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1600.168614115503</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S20" t="n">
-        <v>1600.168614115503</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T20" t="n">
-        <v>1377.424694496271</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U20" t="n">
-        <v>1123.587811428525</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V20" t="n">
-        <v>792.5249240849539</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W20" t="n">
-        <v>792.5249240849539</v>
+        <v>958.6333901110872</v>
       </c>
       <c r="X20" t="n">
-        <v>419.059165823874</v>
+        <v>800.5649960805455</v>
       </c>
       <c r="Y20" t="n">
-        <v>419.059165823874</v>
+        <v>800.5649960805455</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>355.8467647021305</v>
+        <v>353.4469130139943</v>
       </c>
       <c r="C21" t="n">
-        <v>181.3937354210034</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="D21" t="n">
-        <v>32.45932575975218</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975218</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>157.8168858175896</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L21" t="n">
-        <v>387.7799916859387</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M21" t="n">
-        <v>713.1883759714254</v>
+        <v>546.7891136313475</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>1429.063365652629</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V21" t="n">
-        <v>1193.911257420887</v>
+        <v>729.5137502395951</v>
       </c>
       <c r="W21" t="n">
-        <v>939.6739006926853</v>
+        <v>729.5137502395951</v>
       </c>
       <c r="X21" t="n">
-        <v>731.8224004871524</v>
+        <v>521.6622500340623</v>
       </c>
       <c r="Y21" t="n">
-        <v>524.0621017221986</v>
+        <v>521.6622500340623</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W22" t="n">
-        <v>1333.549117950648</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>779.107697186644</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C23" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D23" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E23" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F23" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G23" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6017,22 +6019,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1419.544420318512</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1165.707537250766</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V23" t="n">
-        <v>1165.707537250766</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="W23" t="n">
-        <v>1165.707537250766</v>
+        <v>1165.026932937056</v>
       </c>
       <c r="X23" t="n">
-        <v>1165.707537250766</v>
+        <v>791.5611746759756</v>
       </c>
       <c r="Y23" t="n">
-        <v>1165.707537250766</v>
+        <v>401.4218427001639</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>717.9650240571782</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="C24" t="n">
-        <v>543.5119947760512</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D24" t="n">
-        <v>394.5775851147999</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E24" t="n">
-        <v>235.3401301093444</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F24" t="n">
-        <v>88.80557213622942</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G24" t="n">
-        <v>88.80557213622942</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
         <v>157.8168858175896</v>
@@ -6078,10 +6080,10 @@
         <v>787.1981282902017</v>
       </c>
       <c r="N24" t="n">
-        <v>1131.71878392782</v>
+        <v>1188.882284567135</v>
       </c>
       <c r="O24" t="n">
-        <v>1440.322810374258</v>
+        <v>1440.322810374259</v>
       </c>
       <c r="P24" t="n">
         <v>1622.966287987609</v>
@@ -6093,25 +6095,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.966287987609</v>
+        <v>1446.77716892014</v>
       </c>
       <c r="U24" t="n">
-        <v>1622.966287987609</v>
+        <v>1218.574501457618</v>
       </c>
       <c r="V24" t="n">
-        <v>1387.814179755866</v>
+        <v>983.4223932258753</v>
       </c>
       <c r="W24" t="n">
-        <v>1133.576823027665</v>
+        <v>983.4223932258753</v>
       </c>
       <c r="X24" t="n">
-        <v>925.7253228221321</v>
+        <v>983.4223932258753</v>
       </c>
       <c r="Y24" t="n">
-        <v>717.9650240571782</v>
+        <v>983.4223932258753</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6166,31 +6168,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>129.4902764300189</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X25" t="n">
-        <v>129.4902764300189</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>442.2992974737949</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C26" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D26" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E26" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F26" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G26" t="n">
         <v>32.45932575975218</v>
@@ -6257,19 +6259,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1499.596598348559</v>
+        <v>1458.719143574929</v>
       </c>
       <c r="V26" t="n">
-        <v>1168.533711004989</v>
+        <v>1127.656256231358</v>
       </c>
       <c r="W26" t="n">
-        <v>815.7650557348747</v>
+        <v>774.8876009612438</v>
       </c>
       <c r="X26" t="n">
-        <v>442.2992974737949</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="Y26" t="n">
-        <v>442.2992974737949</v>
+        <v>401.4218427001639</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>321.5470195745884</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C27" t="n">
-        <v>191.6967807652077</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D27" t="n">
-        <v>191.6967807652077</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975218</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H27" t="n">
         <v>32.45932575975218</v>
@@ -6312,7 +6314,7 @@
         <v>505.948365158507</v>
       </c>
       <c r="M27" t="n">
-        <v>656.0248753321102</v>
+        <v>826.2836846882088</v>
       </c>
       <c r="N27" t="n">
         <v>1057.709031609043</v>
@@ -6333,22 +6335,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.966287987609</v>
+        <v>1607.565674079544</v>
       </c>
       <c r="U27" t="n">
-        <v>1394.763620525087</v>
+        <v>1607.565674079544</v>
       </c>
       <c r="V27" t="n">
-        <v>1159.611512293345</v>
+        <v>1372.413565847802</v>
       </c>
       <c r="W27" t="n">
-        <v>905.3741555651432</v>
+        <v>1118.1762091196</v>
       </c>
       <c r="X27" t="n">
-        <v>697.5226553596103</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="Y27" t="n">
-        <v>489.7623565946564</v>
+        <v>910.3247089140674</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.05002336285361</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="C28" t="n">
-        <v>72.05002336285361</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="D28" t="n">
-        <v>72.05002336285361</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="E28" t="n">
-        <v>72.05002336285361</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="F28" t="n">
-        <v>72.05002336285361</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="G28" t="n">
-        <v>72.05002336285361</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="H28" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
         <v>32.45932575975218</v>
@@ -6415,19 +6417,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>175.5296551370332</v>
+        <v>1236.366447923487</v>
       </c>
       <c r="C29" t="n">
-        <v>175.5296551370332</v>
+        <v>867.4039309830757</v>
       </c>
       <c r="D29" t="n">
-        <v>175.5296551370332</v>
+        <v>509.1382323763252</v>
       </c>
       <c r="E29" t="n">
-        <v>175.5296551370332</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F29" t="n">
-        <v>175.5296551370332</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G29" t="n">
-        <v>175.5296551370332</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
-        <v>175.5296551370332</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L29" t="n">
         <v>519.4894913528326</v>
@@ -6497,16 +6499,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V29" t="n">
-        <v>1291.903400644039</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W29" t="n">
-        <v>939.1347453739247</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X29" t="n">
-        <v>565.6689871128449</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y29" t="n">
-        <v>175.5296551370332</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>944.2477145112446</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C30" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D30" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E30" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F30" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L30" t="n">
-        <v>330.1910807414154</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M30" t="n">
-        <v>729.6092173456783</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N30" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O30" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
@@ -6567,25 +6569,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.568727888341</v>
+        <v>1534.78160306728</v>
       </c>
       <c r="T30" t="n">
-        <v>1340.665718993834</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U30" t="n">
-        <v>1112.463051531313</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V30" t="n">
-        <v>1112.463051531313</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W30" t="n">
-        <v>1112.463051531313</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X30" t="n">
-        <v>1112.463051531313</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y30" t="n">
-        <v>1112.463051531313</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L31" t="n">
         <v>107.0302722280248</v>
@@ -6649,22 +6651,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="V31" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="W31" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="X31" t="n">
-        <v>133.2570507049327</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975219</v>
+        <v>214.1077905899919</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>791.3079178064847</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="C32" t="n">
-        <v>422.345400866073</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="D32" t="n">
-        <v>64.07970225932252</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975218</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975218</v>
@@ -6704,10 +6706,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6722,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V32" t="n">
-        <v>1177.907757870606</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W32" t="n">
-        <v>1177.907757870606</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X32" t="n">
-        <v>1177.907757870606</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y32" t="n">
-        <v>1177.907757870606</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>800.0311509215306</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
-        <v>625.5781216404037</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D33" t="n">
-        <v>476.6437119791524</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E33" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
         <v>32.45932575975218</v>
@@ -6780,19 +6782,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809357</v>
+        <v>186.5657812216814</v>
       </c>
       <c r="L33" t="n">
-        <v>534.6972605625989</v>
+        <v>416.5288870900306</v>
       </c>
       <c r="M33" t="n">
-        <v>934.1153971668618</v>
+        <v>737.8129789519152</v>
       </c>
       <c r="N33" t="n">
-        <v>1335.799553443795</v>
+        <v>1082.333634589533</v>
       </c>
       <c r="O33" t="n">
-        <v>1513.730526286846</v>
+        <v>1331.087048673495</v>
       </c>
       <c r="P33" t="n">
         <v>1513.730526286846</v>
@@ -6804,25 +6806,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U33" t="n">
-        <v>1622.966287987609</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V33" t="n">
-        <v>1622.966287987609</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W33" t="n">
-        <v>1383.858286912085</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X33" t="n">
-        <v>1176.006786706552</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y33" t="n">
-        <v>968.2464879415986</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1558.289822548878</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C34" t="n">
-        <v>1558.289822548878</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D34" t="n">
-        <v>1558.289822548878</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E34" t="n">
-        <v>1558.289822548878</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F34" t="n">
-        <v>1558.289822548878</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
-        <v>1558.289822548878</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>1369.60575604483</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>1558.289822548878</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V34" t="n">
-        <v>1558.289822548878</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W34" t="n">
-        <v>1558.289822548878</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X34" t="n">
-        <v>1558.289822548878</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y34" t="n">
-        <v>1558.289822548878</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.45932575975219</v>
+        <v>779.107697186644</v>
       </c>
       <c r="C35" t="n">
-        <v>32.45932575975219</v>
+        <v>779.107697186644</v>
       </c>
       <c r="D35" t="n">
-        <v>32.45932575975219</v>
+        <v>779.107697186644</v>
       </c>
       <c r="E35" t="n">
-        <v>32.45932575975219</v>
+        <v>779.107697186644</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975219</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6959,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T35" t="n">
-        <v>1088.658125761969</v>
+        <v>1364.007467597961</v>
       </c>
       <c r="U35" t="n">
-        <v>834.8212426942232</v>
+        <v>1110.170584530215</v>
       </c>
       <c r="V35" t="n">
-        <v>834.8212426942232</v>
+        <v>779.107697186644</v>
       </c>
       <c r="W35" t="n">
-        <v>482.052587424109</v>
+        <v>779.107697186644</v>
       </c>
       <c r="X35" t="n">
-        <v>108.5868291630292</v>
+        <v>779.107697186644</v>
       </c>
       <c r="Y35" t="n">
-        <v>108.5868291630292</v>
+        <v>779.107697186644</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.45932575975219</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975219</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975219</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384403</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L36" t="n">
-        <v>147.3709770270848</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M36" t="n">
-        <v>546.7891136313477</v>
+        <v>708.1153112156405</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082811</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894784</v>
+        <v>1413.847791376958</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577356</v>
+        <v>1178.695683145215</v>
       </c>
       <c r="W36" t="n">
-        <v>455.571351529534</v>
+        <v>924.4583264170137</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240011</v>
+        <v>716.6068262114809</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.95955255904721</v>
+        <v>508.846527446527</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7117,28 +7119,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="T37" t="n">
-        <v>132.1392625228377</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U37" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V37" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.45932575975218</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="C38" t="n">
-        <v>32.45932575975218</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975218</v>
+        <v>1041.956669761627</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975218</v>
+        <v>656.1684171633824</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975218</v>
+        <v>656.1684171633824</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975218</v>
+        <v>246.3284454493396</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K38" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7196,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1088.658125761969</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U38" t="n">
-        <v>834.8212426942227</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V38" t="n">
-        <v>503.7583553506521</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W38" t="n">
-        <v>405.9250840208321</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X38" t="n">
-        <v>32.45932575975218</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y38" t="n">
-        <v>32.45932575975218</v>
+        <v>1400.222368368377</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>661.618777680701</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="C39" t="n">
-        <v>487.165748399574</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="D39" t="n">
-        <v>338.2313387383227</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="E39" t="n">
-        <v>178.9938837328672</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384403</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L39" t="n">
-        <v>291.1713270321932</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M39" t="n">
-        <v>611.506646561895</v>
+        <v>787.1981282902017</v>
       </c>
       <c r="N39" t="n">
-        <v>956.027302199513</v>
+        <v>1131.71878392782</v>
       </c>
       <c r="O39" t="n">
-        <v>1279.040809374071</v>
+        <v>1440.322810374259</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T39" t="n">
-        <v>1422.063279093102</v>
+        <v>1206.608889621118</v>
       </c>
       <c r="U39" t="n">
-        <v>1193.860611630581</v>
+        <v>978.4062221585959</v>
       </c>
       <c r="V39" t="n">
-        <v>1193.860611630581</v>
+        <v>743.2541139268532</v>
       </c>
       <c r="W39" t="n">
-        <v>1193.860611630581</v>
+        <v>489.0167571986515</v>
       </c>
       <c r="X39" t="n">
-        <v>1037.594413465723</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="Y39" t="n">
-        <v>829.8341147007691</v>
+        <v>281.1652569931187</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L40" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N40" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W40" t="n">
-        <v>1333.549117950648</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1249.500529726529</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C41" t="n">
-        <v>1249.500529726529</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D41" t="n">
-        <v>1249.500529726529</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E41" t="n">
-        <v>1249.500529726529</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F41" t="n">
-        <v>839.6605580124865</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G41" t="n">
-        <v>429.8205862984437</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H41" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975218</v>
@@ -7433,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.966287987609</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W41" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X41" t="n">
-        <v>1249.500529726529</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y41" t="n">
-        <v>1249.500529726529</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>800.0311509215306</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C42" t="n">
-        <v>625.5781216404037</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D42" t="n">
-        <v>476.6437119791524</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>317.4062569736969</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>170.8716990005819</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
@@ -7491,19 +7493,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5657812216814</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>416.5288870900306</v>
+        <v>498.8504879318549</v>
       </c>
       <c r="M42" t="n">
-        <v>815.9470236942935</v>
+        <v>898.2686245361178</v>
       </c>
       <c r="N42" t="n">
-        <v>1160.467679331912</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O42" t="n">
-        <v>1409.221093415874</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P42" t="n">
         <v>1622.966287987609</v>
@@ -7512,28 +7514,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1584.761295806592</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1584.761295806592</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T42" t="n">
-        <v>1383.858286912085</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U42" t="n">
-        <v>1383.858286912085</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="V42" t="n">
-        <v>1383.858286912085</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="W42" t="n">
-        <v>1383.858286912085</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="X42" t="n">
-        <v>1176.006786706552</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="Y42" t="n">
-        <v>968.2464879415986</v>
+        <v>1132.90542022888</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="C43" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="D43" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="E43" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="F43" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="G43" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="H43" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="I43" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="J43" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L43" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M43" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N43" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O43" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q43" t="n">
-        <v>361.2466016029501</v>
+        <v>1558.289822548878</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029501</v>
+        <v>1391.209962814678</v>
       </c>
       <c r="S43" t="n">
-        <v>139.6199360758254</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="T43" t="n">
-        <v>139.6199360758254</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="U43" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="V43" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="W43" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="X43" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1038.797848090511</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C44" t="n">
-        <v>669.8353311500994</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D44" t="n">
         <v>442.2992974737949</v>
@@ -7646,16 +7648,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7676,22 +7678,22 @@
         <v>1425.397688154633</v>
       </c>
       <c r="T44" t="n">
-        <v>1425.397688154633</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U44" t="n">
-        <v>1425.397688154633</v>
+        <v>1159.962024881487</v>
       </c>
       <c r="V44" t="n">
-        <v>1425.397688154633</v>
+        <v>828.8991375379167</v>
       </c>
       <c r="W44" t="n">
-        <v>1425.397688154633</v>
+        <v>828.8991375379167</v>
       </c>
       <c r="X44" t="n">
-        <v>1425.397688154633</v>
+        <v>828.8991375379167</v>
       </c>
       <c r="Y44" t="n">
-        <v>1425.397688154633</v>
+        <v>828.8991375379167</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>651.0967412602795</v>
+        <v>661.618777680701</v>
       </c>
       <c r="C45" t="n">
-        <v>476.6437119791524</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D45" t="n">
-        <v>476.6437119791524</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E45" t="n">
-        <v>317.4062569736969</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F45" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G45" t="n">
         <v>32.45932575975218</v>
@@ -7728,49 +7730,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>147.3709770270845</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L45" t="n">
-        <v>147.3709770270845</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U45" t="n">
-        <v>1489.161233979036</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V45" t="n">
-        <v>1489.161233979036</v>
+        <v>1499.683270399457</v>
       </c>
       <c r="W45" t="n">
-        <v>1234.923877250834</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="X45" t="n">
-        <v>1027.072377045301</v>
+        <v>1037.594413465723</v>
       </c>
       <c r="Y45" t="n">
-        <v>819.3120782803476</v>
+        <v>829.8341147007691</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E46" t="n">
         <v>32.45932575975218</v>
@@ -7843,13 +7845,13 @@
         <v>72.05002336285361</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,7 +8075,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8775,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>371.2019319404387</v>
+        <v>103.505681799068</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>251.9990040344213</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>225.5874665104201</v>
       </c>
       <c r="M18" t="n">
-        <v>74.46639351210686</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304798</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878806</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>213.8448350321618</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>365.1046887710451</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026376</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>254.6267547973815</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>304.3374449804309</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>247.31430480046</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>157.134285587881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11154,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.73813450275543</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>253.9138139918663</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>30.59686944528613</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23276,7 +23278,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0942155799728</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>33.95674767626667</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>80.74515061005617</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827553</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082894</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3046124576955</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23495,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G14" t="n">
         <v>414.7135041305339</v>
@@ -23540,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>94.89751612881739</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>149.8903605864723</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
         <v>251.2985142370684</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.75121464830664</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>109.9723911925662</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
@@ -23628,10 +23630,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>149.8903605864721</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
         <v>251.2985142370684</v>
@@ -23792,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>278.6148488808455</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23811,19 +23813,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>14.97806209615096</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
@@ -23859,16 +23861,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>78.52437462028962</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23896,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>46.64421495084044</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7266695472104</v>
+        <v>128.53187892014</v>
       </c>
       <c r="H19" t="n">
         <v>159.8772180037952</v>
@@ -23944,7 +23946,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
@@ -24014,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>90.2859892123122</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>213.2433905882327</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24051,13 +24053,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.0282495084215</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>33.95674767626679</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>19.50799156204084</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24181,7 +24183,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>186.7332506408625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24257,22 +24259,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>19.12883143063348</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>223.6332656874996</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24297,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40783849989891</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>190.2939636201826</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>128.7502647990355</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
@@ -24406,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
         <v>219.4103988718534</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>122.5240121885307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24497,7 +24499,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>129.1625214944092</v>
+        <v>88.69384126851477</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24519,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>44.15676256702886</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24573,10 +24575,10 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>183.6473710365775</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,13 +24618,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>159.8772180037952</v>
+        <v>14.2097951009666</v>
       </c>
       <c r="I28" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J28" t="n">
-        <v>35.47768583434435</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>315.7598245187568</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
         <v>414.7135041305339</v>
@@ -24698,7 +24700,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>46.11984342706174</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,16 +24739,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,25 +24761,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>44.9582472659328</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>159.1079591185651</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24816,16 +24818,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24889,7 +24891,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>81.14884278648267</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
@@ -24901,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.7949056563661</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>350.6261973376871</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>145.4534490153795</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
@@ -24974,7 +24976,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
@@ -25044,19 +25046,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>84.69968995873808</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>14.97806209615104</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25090,13 +25092,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
-        <v>120.5819502228692</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
         <v>165.4090611368575</v>
@@ -25129,13 +25131,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>307.3676132942364</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25166,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>187.7594695105699</v>
@@ -25199,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>159.7401620719344</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>159.1079591185653</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>18.89332914335196</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
-        <v>165.4090611368575</v>
+        <v>126.4326563886826</v>
       </c>
       <c r="S37" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>187.6214750622409</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,19 +25396,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>121.7098872230291</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25436,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>252.3860301008912</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>33.11095161242633</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>51.06944902026828</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25594,7 +25596,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>126.4326563886826</v>
       </c>
       <c r="S40" t="n">
         <v>219.4103988718534</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>186.7332506408625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25637,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
-        <v>127.8121372929859</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>252.3860301008911</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>24.72030225534075</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25722,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>42.76064223906855</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
@@ -25770,7 +25772,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25807,7 +25809,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>198.0222341697042</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>180.215608244783</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>129.4223682811416</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25916,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>209.0336880196942</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25947,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25956,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
@@ -25998,10 +26000,10 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>93.45363731940904</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>191.3339842354306</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>107.2391720194988</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>247.3282077095206</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>502027.9081018256</v>
+        <v>502027.9081018254</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>502027.9081018255</v>
+        <v>502027.9081018256</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>502027.9081018254</v>
+        <v>502027.9081018255</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>502027.9081018252</v>
+        <v>502027.9081018253</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>502027.9081018256</v>
+        <v>502027.9081018253</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>502027.9081018255</v>
+        <v>502027.9081018257</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>502027.9081018254</v>
+        <v>502027.9081018257</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>502027.9081018257</v>
+        <v>502027.9081018253</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>502027.9081018255</v>
+        <v>502027.9081018252</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>502027.9081018255</v>
+        <v>502027.9081018257</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>502027.9081018254</v>
+        <v>502027.9081018255</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
         <v>245673.2316242976</v>
@@ -26329,31 +26331,31 @@
         <v>245673.2316242975</v>
       </c>
       <c r="H2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242975</v>
       </c>
       <c r="I2" t="n">
         <v>245673.2316242975</v>
       </c>
       <c r="J2" t="n">
+        <v>245673.2316242975</v>
+      </c>
+      <c r="K2" t="n">
         <v>245673.2316242976</v>
-      </c>
-      <c r="K2" t="n">
-        <v>245673.2316242975</v>
       </c>
       <c r="L2" t="n">
         <v>245673.2316242975</v>
       </c>
       <c r="M2" t="n">
+        <v>245673.2316242976</v>
+      </c>
+      <c r="N2" t="n">
+        <v>245673.2316242976</v>
+      </c>
+      <c r="O2" t="n">
         <v>245673.2316242975</v>
       </c>
-      <c r="N2" t="n">
-        <v>245673.2316242974</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>245673.2316242976</v>
-      </c>
-      <c r="P2" t="n">
-        <v>245673.2316242975</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26377,7 @@
         <v>166940.1701252467</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.261091817170383e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="C4" t="n">
         <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
         <v>305.9587030485383</v>
@@ -26430,7 +26432,7 @@
         <v>305.9587030485383</v>
       </c>
       <c r="G4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="H4" t="n">
         <v>305.9587030485383</v>
@@ -26439,16 +26441,16 @@
         <v>305.9587030485383</v>
       </c>
       <c r="J4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="K4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="L4" t="n">
         <v>305.9587030485383</v>
       </c>
       <c r="M4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="N4" t="n">
         <v>305.9587030485383</v>
@@ -26482,28 +26484,28 @@
         <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="H5" t="n">
         <v>27864.35291375757</v>
       </c>
-      <c r="H5" t="n">
-        <v>27864.35291375756</v>
-      </c>
       <c r="I5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="L5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="N5" t="n">
         <v>27864.35291375757</v>
-      </c>
-      <c r="N5" t="n">
-        <v>27864.35291375756</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375756</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63923.25724449033</v>
+        <v>63923.25724449009</v>
       </c>
       <c r="C6" t="n">
         <v>144692.6887760379</v>
       </c>
       <c r="D6" t="n">
-        <v>144692.6887760381</v>
+        <v>144692.6887760378</v>
       </c>
       <c r="E6" t="n">
         <v>50562.74988224477</v>
@@ -26534,10 +26536,10 @@
         <v>217502.9200074915</v>
       </c>
       <c r="G6" t="n">
+        <v>217502.9200074915</v>
+      </c>
+      <c r="H6" t="n">
         <v>217502.9200074914</v>
-      </c>
-      <c r="H6" t="n">
-        <v>217502.9200074915</v>
       </c>
       <c r="I6" t="n">
         <v>217502.9200074914</v>
@@ -26546,19 +26548,19 @@
         <v>154442.9774083853</v>
       </c>
       <c r="K6" t="n">
+        <v>217502.9200074915</v>
+      </c>
+      <c r="L6" t="n">
+        <v>217502.9200074915</v>
+      </c>
+      <c r="M6" t="n">
+        <v>176452.2221450436</v>
+      </c>
+      <c r="N6" t="n">
+        <v>217502.9200074915</v>
+      </c>
+      <c r="O6" t="n">
         <v>217502.9200074914</v>
-      </c>
-      <c r="L6" t="n">
-        <v>217502.9200074914</v>
-      </c>
-      <c r="M6" t="n">
-        <v>176452.2221450435</v>
-      </c>
-      <c r="N6" t="n">
-        <v>217502.9200074914</v>
-      </c>
-      <c r="O6" t="n">
-        <v>217502.9200074915</v>
       </c>
       <c r="P6" t="n">
         <v>217502.9200074915</v>
@@ -26969,7 +26971,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.39075054832453e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192432</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192432</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>374.1517240403105</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27430,16 +27432,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>140.5452563781768</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.57866799096037</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27470,7 +27472,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27479,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,19 +27511,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>19.31363459367194</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>95.24412853877561</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>185.1569885989568</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>163.1559155864471</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>22.15034063937958</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,7 +27712,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>43.63683876241824</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27740,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27755,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27819,7 +27821,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>198.4610187396885</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,10 +27934,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27947,7 +27949,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>7.066358566620337</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>137.7060311583434</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>143.9416082994493</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31750,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
         <v>103.4642265438473</v>
@@ -31774,25 +31776,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,31 +31834,31 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
         <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
         <v>40.24363958326609</v>
@@ -31865,7 +31867,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,34 +31910,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M13" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q13" t="n">
         <v>22.13234246735009</v>
@@ -31944,7 +31946,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
@@ -32075,7 +32077,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
@@ -32087,10 +32089,10 @@
         <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975591</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100589</v>
+        <v>67.84062208479162</v>
       </c>
       <c r="P15" t="n">
         <v>60.20229453601701</v>
@@ -32318,13 +32320,13 @@
         <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>79.88163340864766</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975591</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O18" t="n">
         <v>75.01019504100589</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>5.124307834126171</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>57.74090973668211</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32643,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32652,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32788,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -32798,10 +32800,10 @@
         <v>79.88163340864766</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>57.74090973668211</v>
       </c>
       <c r="O24" t="n">
-        <v>60.45516400250142</v>
+        <v>2.714254265819505</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -33023,7 +33025,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K27" t="n">
         <v>50.90881248409524</v>
@@ -33032,10 +33034,10 @@
         <v>68.45318092253945</v>
       </c>
       <c r="M27" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>75.01019504100589</v>
@@ -33263,22 +33265,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>79.88163340864766</v>
       </c>
       <c r="N30" t="n">
-        <v>81.99586254975591</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O30" t="n">
         <v>75.01019504100589</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q30" t="n">
         <v>40.24363958326609</v>
@@ -33500,22 +33502,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K33" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>79.88163340864766</v>
+        <v>0.9583558910937313</v>
       </c>
       <c r="N33" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>40.24363958326609</v>
@@ -33737,16 +33739,16 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K36" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>57.74090973668211</v>
+        <v>5.124307834126171</v>
       </c>
       <c r="O36" t="n">
         <v>75.01019504100589</v>
@@ -33974,22 +33976,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100589</v>
+        <v>60.45516400250165</v>
       </c>
       <c r="P39" t="n">
-        <v>52.57195888830734</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>40.24363958326609</v>
@@ -34211,25 +34213,25 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>32.24431967936368</v>
       </c>
       <c r="M42" t="n">
         <v>79.88163340864766</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P42" t="n">
-        <v>31.41587571553984</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>19.57424965436761</v>
@@ -34366,7 +34368,7 @@
         <v>22.71642005983599</v>
       </c>
       <c r="J44" t="n">
-        <v>50.01044697629204</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K44" t="n">
         <v>74.95269614645902</v>
@@ -34387,7 +34389,7 @@
         <v>84.73249724737667</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134792</v>
       </c>
       <c r="R44" t="n">
         <v>37.01343159545223</v>
@@ -34448,13 +34450,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M45" t="n">
-        <v>79.88163340864766</v>
+        <v>5.55401521312433</v>
       </c>
       <c r="N45" t="n">
         <v>57.74090973668206</v>
@@ -34778,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,7 +34795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35021,7 +35023,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
         <v>179.0082576726432</v>
@@ -35419,7 +35421,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N11" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O11" t="n">
         <v>249.9811662707763</v>
@@ -35428,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>177.5326105223148</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>308.9495314270681</v>
+        <v>41.25328128569732</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,16 +35570,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
         <v>61.94411832576036</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>189.7466035210507</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
-        <v>326.276269873291</v>
+        <v>319.1066969170767</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054588</v>
       </c>
       <c r="M18" t="n">
-        <v>12.2139929987362</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36139,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>87.03308673054592</v>
       </c>
       <c r="M21" t="n">
-        <v>328.6953376621078</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36218,7 +36220,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36446,10 +36448,10 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
-        <v>311.7212388347865</v>
+        <v>253.9803290981046</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36680,10 +36682,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>151.5924345187911</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>233.7629766877117</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366292</v>
@@ -36926,10 +36928,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>170.3630375661007</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223148</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>403.4526632366292</v>
+        <v>324.5293857190753</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>179.7282553970214</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>110.3391532330937</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>87.03308673054623</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>353.1249700943464</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37403,7 +37405,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>311.7212388347867</v>
       </c>
       <c r="P39" t="n">
-        <v>237.0603201139143</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>264.5302852029487</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>215.9042369411468</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
@@ -38035,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680312</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>116.0723750175074</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>403.4526632366292</v>
+        <v>329.1250450411059</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969023</v>
@@ -38114,7 +38116,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
